--- a/docs/records_of_all_season_together/official_leage_performance/2025_powerleague/편 야구단 기록(2025 파워리그).xlsx
+++ b/docs/records_of_all_season_together/official_leage_performance/2025_powerleague/편 야구단 기록(2025 파워리그).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chans\OneDrive\바탕 화면\편 야구단\위키\docs\records_of_all_season_together\official_leage_performance\2025_powerleague\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590D102A-352E-44D3-A7E7-601A4D445DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A9796F-2B7E-443B-8395-2317C34BD004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="15400" xr2:uid="{2AD3FD9C-43E6-462B-9090-8E696F876BCD}"/>
   </bookViews>
@@ -678,7 +678,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
